--- a/documentacao/SHI_Planejamento_Financeiro_Simplificado.xlsx
+++ b/documentacao/SHI_Planejamento_Financeiro_Simplificado.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Estudos\FIAP\Empreendedorismo e Inovação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Estudos\FIAP\Empreendedorismo e Inovação\StartupOne-SHI-Analytics\documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A59E425-9567-4417-ACBC-C2003AAF6D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A8254E-B971-48E2-9200-917A93304C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="829" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="829" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InformacoesBasicas" sheetId="1" r:id="rId1"/>
@@ -1086,7 +1086,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1144,10 +1144,8 @@
     </xf>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="6" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="6" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="6" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1206,6 +1204,11 @@
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="8" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Moeda" xfId="3" builtinId="4"/>
@@ -1405,7 +1408,7 @@
             <c:numRef>
               <c:f>'Resumo-Planejamento Financeiro'!$B$11:$F$11</c:f>
               <c:numCache>
-                <c:formatCode>"R$"#,##0_);[Red]\("R$"#,##0\)</c:formatCode>
+                <c:formatCode>"R$"#,##0.00_);[Red]\("R$"#,##0.00\)</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>923062.5</c:v>
@@ -5024,62 +5027,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="67"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="67"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
+      <c r="A3" s="65"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="67"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="67"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
+      <c r="A5" s="65"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="68"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
+      <c r="A6" s="66"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="68"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
+      <c r="A7" s="66"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
@@ -5094,7 +5097,7 @@
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="65">
+      <c r="B10" s="63">
         <v>2</v>
       </c>
       <c r="C10" t="s">
@@ -5102,13 +5105,13 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="B11" s="65"/>
+      <c r="B11" s="63"/>
       <c r="C11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="B12" s="65"/>
+      <c r="B12" s="63"/>
       <c r="C12" t="s">
         <v>5</v>
       </c>
@@ -5355,22 +5358,38 @@
   <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:M9"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="10.199999999999999"/>
   <cols>
-    <col min="1" max="1" width="27.109375" style="2" customWidth="1"/>
-    <col min="2" max="11" width="11" style="2" customWidth="1"/>
-    <col min="12" max="13" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.44140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="19.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.6">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="67" t="s">
         <v>17</v>
       </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="4" t="s">
@@ -6964,6 +6983,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:N1"/>
+  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.49212598499999999" footer="0.49212598499999999"/>
   <headerFooter alignWithMargins="0"/>
@@ -8980,27 +9002,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="10.199999999999999"/>
   <cols>
-    <col min="1" max="1" width="27.88671875" style="14" customWidth="1"/>
-    <col min="2" max="2" width="11" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" style="11" customWidth="1"/>
-    <col min="4" max="15" width="11" style="11" customWidth="1"/>
-    <col min="16" max="16" width="15.44140625" style="12" customWidth="1"/>
-    <col min="17" max="16384" width="9.109375" style="14"/>
+    <col min="1" max="1" width="26.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="15" width="9.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.21875" style="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="7.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.109375" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.6">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="67" t="s">
         <v>27</v>
       </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
     </row>
     <row r="4" spans="1:17" s="26" customFormat="1" ht="20.399999999999999">
       <c r="A4" s="24" t="s">
@@ -9939,6 +9977,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:P1"/>
+  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.49212598499999999" footer="0.49212598499999999"/>
   <headerFooter alignWithMargins="0"/>
@@ -9950,30 +9991,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="13" style="17" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.44140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="14.5546875" style="17" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="9.109375" style="17"/>
-    <col min="11" max="11" width="9.77734375" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="17" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9.109375" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.6">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="28"/>
@@ -10017,23 +10056,23 @@
       <c r="A4" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="37">
+      <c r="B4" s="68">
         <f>'Entrada de $'!N5</f>
         <v>1605000</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="68">
         <f>B4*(1+InformacoesBasicas!D29)</f>
         <v>1765500.0000000002</v>
       </c>
-      <c r="D4" s="37">
+      <c r="D4" s="68">
         <f>C4*(1+InformacoesBasicas!D30)</f>
         <v>2118600</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="68">
         <f>D4*(1+InformacoesBasicas!D31)</f>
         <v>2648250</v>
       </c>
-      <c r="F4" s="37">
+      <c r="F4" s="68">
         <f>E4*(1+InformacoesBasicas!D32)</f>
         <v>3442725</v>
       </c>
@@ -10042,23 +10081,23 @@
       <c r="A5" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="38">
+      <c r="B5" s="50">
         <f>IF(InformacoesBasicas!$B10=1,0.18,IF(InformacoesBasicas!$B10=2,0.05,IF(InformacoesBasicas!$B10=1,0.1,0.1)))*B4</f>
         <v>80250</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="50">
         <f>IF(InformacoesBasicas!$B10=1,0.18,IF(InformacoesBasicas!$B10=2,0.05,IF(InformacoesBasicas!$B10=1,0.1,0.1)))*C4</f>
         <v>88275.000000000015</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="50">
         <f>IF(InformacoesBasicas!$B10=1,0.18,IF(InformacoesBasicas!$B10=2,0.05,IF(InformacoesBasicas!$B10=1,0.1,0.1)))*D4</f>
         <v>105930</v>
       </c>
-      <c r="E5" s="38">
+      <c r="E5" s="50">
         <f>IF(InformacoesBasicas!$B10=1,0.18,IF(InformacoesBasicas!$B10=2,0.05,IF(InformacoesBasicas!$B10=1,0.1,0.1)))*E4</f>
         <v>132412.5</v>
       </c>
-      <c r="F5" s="38">
+      <c r="F5" s="50">
         <f>IF(InformacoesBasicas!$B10=1,0.18,IF(InformacoesBasicas!$B10=2,0.05,IF(InformacoesBasicas!$B10=1,0.1,0.1)))*F4</f>
         <v>172136.25</v>
       </c>
@@ -10067,47 +10106,47 @@
       <c r="A6" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="37">
+      <c r="B6" s="68">
         <f>B4-B5</f>
         <v>1524750</v>
       </c>
-      <c r="C6" s="37">
+      <c r="C6" s="68">
         <f>C4-C5</f>
         <v>1677225.0000000002</v>
       </c>
-      <c r="D6" s="37">
+      <c r="D6" s="68">
         <f>D4-D5</f>
         <v>2012670</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6" s="68">
         <f>E4-E5</f>
         <v>2515837.5</v>
       </c>
-      <c r="F6" s="37">
+      <c r="F6" s="68">
         <f>F4-F5</f>
         <v>3270588.75</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="40">
+      <c r="B7" s="69">
         <v>1000</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C7" s="50">
         <f>B7*(1+InformacoesBasicas!D43)</f>
         <v>1100</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="50">
         <f>C7*(1+InformacoesBasicas!E43)</f>
         <v>1100</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="50">
         <f>D7*(1+InformacoesBasicas!F43)</f>
         <v>1100</v>
       </c>
-      <c r="F7" s="38">
+      <c r="F7" s="50">
         <f>E7*(1+InformacoesBasicas!G43)</f>
         <v>1100</v>
       </c>
@@ -10116,23 +10155,23 @@
       <c r="A8" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="38">
+      <c r="B8" s="50">
         <f>'Saídas de $'!P19</f>
         <v>293000</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C8" s="50">
         <f>B8*(1+InformacoesBasicas!D36)</f>
         <v>380900</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="50">
         <f>C8*(1+InformacoesBasicas!D37)</f>
         <v>418990.00000000006</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="50">
         <f>D8*(1+InformacoesBasicas!D38)</f>
         <v>460889.00000000012</v>
       </c>
-      <c r="F8" s="38">
+      <c r="F8" s="50">
         <f>E8*(1+InformacoesBasicas!D39)</f>
         <v>506977.9000000002</v>
       </c>
@@ -10141,23 +10180,23 @@
       <c r="A9" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="38">
+      <c r="B9" s="50">
         <f>B6-B8-B7</f>
         <v>1230750</v>
       </c>
-      <c r="C9" s="38">
+      <c r="C9" s="50">
         <f>C6-C8-C7</f>
         <v>1295225.0000000002</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="50">
         <f>D6-D8-D7</f>
         <v>1592580</v>
       </c>
-      <c r="E9" s="38">
+      <c r="E9" s="50">
         <f>E6-E8-E7</f>
         <v>2053848.5</v>
       </c>
-      <c r="F9" s="38">
+      <c r="F9" s="50">
         <f>F6-F8-F7</f>
         <v>2762510.8499999996</v>
       </c>
@@ -10166,23 +10205,23 @@
       <c r="A10" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="38">
+      <c r="B10" s="50">
         <f>IF(B9&gt;0,B9*0.25,0)</f>
         <v>307687.5</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="50">
         <f>IF(C9&gt;0,C9*0.25,0)</f>
         <v>323806.25000000006</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="50">
         <f>IF(D9&gt;0,D9*0.25,0)</f>
         <v>398145</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="50">
         <f>IF(E9&gt;0,E9*0.25,0)</f>
         <v>513462.125</v>
       </c>
-      <c r="F10" s="38">
+      <c r="F10" s="50">
         <f>IF(F9&gt;0,F9*0.25,0)</f>
         <v>690627.71249999991</v>
       </c>
@@ -10191,44 +10230,44 @@
       <c r="A11" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="37">
+      <c r="B11" s="68">
         <f>B9-B10</f>
         <v>923062.5</v>
       </c>
-      <c r="C11" s="37">
+      <c r="C11" s="68">
         <f>C9-C10</f>
         <v>971418.75000000023</v>
       </c>
-      <c r="D11" s="37">
+      <c r="D11" s="68">
         <f>D9-D10</f>
         <v>1194435</v>
       </c>
-      <c r="E11" s="37">
+      <c r="E11" s="68">
         <f>E9-E10</f>
         <v>1540386.375</v>
       </c>
-      <c r="F11" s="37">
+      <c r="F11" s="68">
         <f>F9-F10</f>
         <v>2071883.1374999997</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="28"/>
-      <c r="B12" s="38"/>
+      <c r="B12" s="37"/>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
       <c r="E12" s="28"/>
       <c r="F12" s="28"/>
     </row>
     <row r="14" spans="1:6" ht="15.6">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
     </row>
     <row r="15" spans="1:6" ht="15.6">
       <c r="A15" s="23"/>
@@ -10252,23 +10291,23 @@
       <c r="A16" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="37">
+      <c r="B16" s="68">
         <f>B4</f>
         <v>1605000</v>
       </c>
-      <c r="C16" s="37">
+      <c r="C16" s="68">
         <f>C4</f>
         <v>1765500.0000000002</v>
       </c>
-      <c r="D16" s="37">
+      <c r="D16" s="68">
         <f>D4</f>
         <v>2118600</v>
       </c>
-      <c r="E16" s="37">
+      <c r="E16" s="68">
         <f>E4</f>
         <v>2648250</v>
       </c>
-      <c r="F16" s="37">
+      <c r="F16" s="68">
         <f>F4</f>
         <v>3442725</v>
       </c>
@@ -10277,23 +10316,23 @@
       <c r="A17" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="38">
+      <c r="B17" s="50">
         <f>B5+B8+B10+B7</f>
         <v>681937.5</v>
       </c>
-      <c r="C17" s="38">
+      <c r="C17" s="50">
         <f>C5+C8+C10+C7</f>
         <v>794081.25</v>
       </c>
-      <c r="D17" s="38">
+      <c r="D17" s="50">
         <f>D5+D8+D10+D7</f>
         <v>924165</v>
       </c>
-      <c r="E17" s="38">
+      <c r="E17" s="50">
         <f>E5+E8+E10+E7</f>
         <v>1107863.625</v>
       </c>
-      <c r="F17" s="38">
+      <c r="F17" s="50">
         <f>F5+F8+F10+F7</f>
         <v>1370841.8625</v>
       </c>
@@ -10307,23 +10346,23 @@
       <c r="A18" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="38">
+      <c r="B18" s="50">
         <f>SUM('Saídas de $'!C$10:$C$12)</f>
         <v>3000</v>
       </c>
-      <c r="C18" s="38">
+      <c r="C18" s="50">
         <f>SUM('Saídas de $'!$C$10:D$12)</f>
         <v>3000</v>
       </c>
-      <c r="D18" s="38">
+      <c r="D18" s="50">
         <f>SUM('Saídas de $'!$C$10:E$12)</f>
         <v>3000</v>
       </c>
-      <c r="E18" s="38">
+      <c r="E18" s="50">
         <f>SUM('Saídas de $'!$C$10:F$12)</f>
         <v>3000</v>
       </c>
-      <c r="F18" s="38">
+      <c r="F18" s="50">
         <f>SUM('Saídas de $'!$C$10:G$12)</f>
         <v>3000</v>
       </c>
@@ -10337,23 +10376,23 @@
       <c r="A19" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="37">
+      <c r="B19" s="68">
         <f>B16-B17+B18</f>
         <v>926062.5</v>
       </c>
-      <c r="C19" s="37">
+      <c r="C19" s="68">
         <f>C16-C17+C18</f>
         <v>974418.75000000023</v>
       </c>
-      <c r="D19" s="37">
+      <c r="D19" s="68">
         <f>D16-D17+D18</f>
         <v>1197435</v>
       </c>
-      <c r="E19" s="37">
+      <c r="E19" s="68">
         <f>E16-E17+E18</f>
         <v>1543386.375</v>
       </c>
-      <c r="F19" s="37">
+      <c r="F19" s="68">
         <f>F16-F17+F18</f>
         <v>2074883.1375</v>
       </c>
@@ -10364,11 +10403,11 @@
       <c r="K19" s="28"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="39" t="s">
         <v>65</v>
       </c>
       <c r="B23" s="36"/>
-      <c r="C23" s="42"/>
+      <c r="C23" s="40"/>
       <c r="D23" s="36" t="s">
         <v>66</v>
       </c>
@@ -10383,7 +10422,7 @@
     <row r="25" spans="1:11">
       <c r="A25" s="28"/>
       <c r="B25" s="28"/>
-      <c r="C25" s="43"/>
+      <c r="C25" s="41"/>
       <c r="D25" s="28"/>
       <c r="E25" s="28"/>
       <c r="F25" s="28"/>
@@ -10430,43 +10469,43 @@
       <c r="A28" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="44">
+      <c r="B28" s="42">
         <f>B29</f>
         <v>10</v>
       </c>
-      <c r="C28" s="44">
+      <c r="C28" s="42">
         <f>C29+B28*(1-C31)</f>
         <v>24</v>
       </c>
-      <c r="D28" s="45">
+      <c r="D28" s="43">
         <f t="shared" ref="D28:K28" si="1">D29+C28*(1-D31)</f>
         <v>41.6</v>
       </c>
-      <c r="E28" s="45">
+      <c r="E28" s="43">
         <f t="shared" si="1"/>
         <v>62.440000000000005</v>
       </c>
-      <c r="F28" s="45">
+      <c r="F28" s="43">
         <f t="shared" si="1"/>
         <v>86.195999999999998</v>
       </c>
-      <c r="G28" s="45">
+      <c r="G28" s="43">
         <f t="shared" si="1"/>
         <v>112.57640000000001</v>
       </c>
-      <c r="H28" s="45">
+      <c r="H28" s="43">
         <f t="shared" si="1"/>
         <v>141.31876</v>
       </c>
-      <c r="I28" s="45">
+      <c r="I28" s="43">
         <f t="shared" si="1"/>
         <v>172.18688400000002</v>
       </c>
-      <c r="J28" s="45">
+      <c r="J28" s="43">
         <f t="shared" si="1"/>
         <v>204.96819560000003</v>
       </c>
-      <c r="K28" s="45">
+      <c r="K28" s="43">
         <f t="shared" si="1"/>
         <v>239.47137604000002</v>
       </c>
@@ -10475,40 +10514,40 @@
       <c r="A29" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="B29" s="44">
+      <c r="B29" s="42">
         <v>10</v>
       </c>
-      <c r="C29" s="44">
+      <c r="C29" s="42">
         <v>15</v>
       </c>
-      <c r="D29" s="44">
+      <c r="D29" s="42">
         <v>20</v>
       </c>
-      <c r="E29" s="44">
+      <c r="E29" s="42">
         <f>D29+5</f>
         <v>25</v>
       </c>
-      <c r="F29" s="44">
+      <c r="F29" s="42">
         <f t="shared" ref="F29:K29" si="2">E29+5</f>
         <v>30</v>
       </c>
-      <c r="G29" s="44">
+      <c r="G29" s="42">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="H29" s="44">
+      <c r="H29" s="42">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="I29" s="44">
+      <c r="I29" s="42">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="J29" s="44">
+      <c r="J29" s="42">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="K29" s="44">
+      <c r="K29" s="42">
         <f t="shared" si="2"/>
         <v>55</v>
       </c>
@@ -10517,43 +10556,43 @@
       <c r="A30" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="46">
+      <c r="B30" s="44">
         <f>20*3</f>
         <v>60</v>
       </c>
-      <c r="C30" s="47">
+      <c r="C30" s="45">
         <f>B30*0.95</f>
         <v>57</v>
       </c>
-      <c r="D30" s="47">
+      <c r="D30" s="45">
         <f t="shared" ref="D30:K30" si="3">C30*0.95</f>
         <v>54.15</v>
       </c>
-      <c r="E30" s="47">
+      <c r="E30" s="45">
         <f t="shared" si="3"/>
         <v>51.442499999999995</v>
       </c>
-      <c r="F30" s="47">
+      <c r="F30" s="45">
         <f t="shared" si="3"/>
         <v>48.870374999999996</v>
       </c>
-      <c r="G30" s="47">
+      <c r="G30" s="45">
         <f t="shared" si="3"/>
         <v>46.426856249999993</v>
       </c>
-      <c r="H30" s="47">
+      <c r="H30" s="45">
         <f t="shared" si="3"/>
         <v>44.105513437499994</v>
       </c>
-      <c r="I30" s="47">
+      <c r="I30" s="45">
         <f t="shared" si="3"/>
         <v>41.900237765624993</v>
       </c>
-      <c r="J30" s="47">
+      <c r="J30" s="45">
         <f t="shared" si="3"/>
         <v>39.805225877343744</v>
       </c>
-      <c r="K30" s="47">
+      <c r="K30" s="45">
         <f t="shared" si="3"/>
         <v>37.814964583476552</v>
       </c>
@@ -10562,42 +10601,42 @@
       <c r="A31" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="B31" s="48">
-        <v>0</v>
-      </c>
-      <c r="C31" s="48">
+      <c r="B31" s="46">
+        <v>0</v>
+      </c>
+      <c r="C31" s="46">
         <v>0.1</v>
       </c>
-      <c r="D31" s="48">
+      <c r="D31" s="46">
         <v>0.1</v>
       </c>
-      <c r="E31" s="48">
+      <c r="E31" s="46">
         <v>0.1</v>
       </c>
-      <c r="F31" s="48">
+      <c r="F31" s="46">
         <v>0.1</v>
       </c>
-      <c r="G31" s="48">
+      <c r="G31" s="46">
         <v>0.1</v>
       </c>
-      <c r="H31" s="48">
+      <c r="H31" s="46">
         <v>0.1</v>
       </c>
-      <c r="I31" s="48">
+      <c r="I31" s="46">
         <v>0.1</v>
       </c>
-      <c r="J31" s="48">
+      <c r="J31" s="46">
         <v>0.1</v>
       </c>
-      <c r="K31" s="48">
+      <c r="K31" s="46">
         <v>0.1</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="28"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
       <c r="E32" s="28"/>
       <c r="F32" s="28"/>
       <c r="G32" s="28"/>
@@ -10610,52 +10649,52 @@
       <c r="A33" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="B33" s="49">
+      <c r="B33" s="47">
         <f>B30*B29</f>
         <v>600</v>
       </c>
-      <c r="C33" s="49">
+      <c r="C33" s="47">
         <f>C29*C30</f>
         <v>855</v>
       </c>
-      <c r="D33" s="49">
+      <c r="D33" s="47">
         <f t="shared" ref="D33:K33" si="4">D29*D30</f>
         <v>1083</v>
       </c>
-      <c r="E33" s="49">
+      <c r="E33" s="47">
         <f t="shared" si="4"/>
         <v>1286.0625</v>
       </c>
-      <c r="F33" s="49">
+      <c r="F33" s="47">
         <f t="shared" si="4"/>
         <v>1466.1112499999999</v>
       </c>
-      <c r="G33" s="49">
+      <c r="G33" s="47">
         <f t="shared" si="4"/>
         <v>1624.9399687499997</v>
       </c>
-      <c r="H33" s="49">
+      <c r="H33" s="47">
         <f t="shared" si="4"/>
         <v>1764.2205374999999</v>
       </c>
-      <c r="I33" s="49">
+      <c r="I33" s="47">
         <f t="shared" si="4"/>
         <v>1885.5106994531247</v>
       </c>
-      <c r="J33" s="49">
+      <c r="J33" s="47">
         <f t="shared" si="4"/>
         <v>1990.2612938671873</v>
       </c>
-      <c r="K33" s="49">
+      <c r="K33" s="47">
         <f t="shared" si="4"/>
         <v>2079.8230520912102</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="28"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
       <c r="E34" s="28"/>
       <c r="F34" s="28"/>
       <c r="G34" s="28"/>
@@ -10668,34 +10707,34 @@
       <c r="A35" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="B35" s="50">
+      <c r="B35" s="48">
         <v>20</v>
       </c>
-      <c r="C35" s="50">
+      <c r="C35" s="48">
         <v>20</v>
       </c>
-      <c r="D35" s="50">
+      <c r="D35" s="48">
         <v>20</v>
       </c>
-      <c r="E35" s="50">
+      <c r="E35" s="48">
         <v>20</v>
       </c>
-      <c r="F35" s="50">
+      <c r="F35" s="48">
         <v>20</v>
       </c>
-      <c r="G35" s="50">
+      <c r="G35" s="48">
         <v>20</v>
       </c>
-      <c r="H35" s="50">
+      <c r="H35" s="48">
         <v>20</v>
       </c>
-      <c r="I35" s="50">
+      <c r="I35" s="48">
         <v>20</v>
       </c>
-      <c r="J35" s="50">
+      <c r="J35" s="48">
         <v>20</v>
       </c>
-      <c r="K35" s="50">
+      <c r="K35" s="48">
         <v>20</v>
       </c>
     </row>
@@ -10703,50 +10742,50 @@
       <c r="A36" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="B36" s="49">
+      <c r="B36" s="47">
         <f>B35*B28</f>
         <v>200</v>
       </c>
-      <c r="C36" s="49">
+      <c r="C36" s="47">
         <f>C35*C28</f>
         <v>480</v>
       </c>
-      <c r="D36" s="49">
+      <c r="D36" s="47">
         <f t="shared" ref="D36:K36" si="5">D35*D28</f>
         <v>832</v>
       </c>
-      <c r="E36" s="49">
+      <c r="E36" s="47">
         <f t="shared" si="5"/>
         <v>1248.8000000000002</v>
       </c>
-      <c r="F36" s="49">
+      <c r="F36" s="47">
         <f t="shared" si="5"/>
         <v>1723.92</v>
       </c>
-      <c r="G36" s="49">
+      <c r="G36" s="47">
         <f t="shared" si="5"/>
         <v>2251.5280000000002</v>
       </c>
-      <c r="H36" s="49">
+      <c r="H36" s="47">
         <f t="shared" si="5"/>
         <v>2826.3751999999999</v>
       </c>
-      <c r="I36" s="49">
+      <c r="I36" s="47">
         <f t="shared" si="5"/>
         <v>3443.7376800000002</v>
       </c>
-      <c r="J36" s="49">
+      <c r="J36" s="47">
         <f t="shared" si="5"/>
         <v>4099.3639120000007</v>
       </c>
-      <c r="K36" s="49">
+      <c r="K36" s="47">
         <f t="shared" si="5"/>
         <v>4789.4275208000008</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="28"/>
-      <c r="B38" s="51"/>
+      <c r="B38" s="49"/>
       <c r="C38" s="28"/>
       <c r="D38" s="28"/>
       <c r="E38" s="28"/>
@@ -10784,32 +10823,36 @@
       <c r="A56" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="B56" s="52">
+      <c r="B56" s="50">
         <f>-'Saídas de $'!B8</f>
         <v>-21000</v>
       </c>
-      <c r="C56" s="52">
+      <c r="C56" s="50">
         <f>B11+'Saídas de $'!$P27</f>
         <v>935062.5</v>
       </c>
-      <c r="D56" s="52">
+      <c r="D56" s="50">
         <f>C11+'Saídas de $'!$P27</f>
         <v>983418.75000000023</v>
       </c>
-      <c r="E56" s="52">
+      <c r="E56" s="50">
         <f>D11+'Saídas de $'!$P27</f>
         <v>1206435</v>
       </c>
-      <c r="F56" s="52">
+      <c r="F56" s="50">
         <f>E11+'Saídas de $'!$P27</f>
         <v>1552386.375</v>
       </c>
-      <c r="G56" s="52">
+      <c r="G56" s="50">
         <f>F11+'Saídas de $'!$P27</f>
         <v>2083883.1374999997</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A14:F14"/>
+  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.49212598499999999" footer="0.49212598499999999"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
@@ -10825,164 +10868,164 @@
   </sheetPr>
   <dimension ref="B1:AE111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q50" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
       <selection activeCell="S63" sqref="S63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="18" width="12" style="57"/>
-    <col min="19" max="19" width="19.88671875" style="57" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="12" style="57"/>
+    <col min="1" max="18" width="12" style="55"/>
+    <col min="19" max="19" width="19.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="12" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" s="53" customFormat="1"/>
-    <row r="2" spans="2:2" s="53" customFormat="1" ht="7.95" customHeight="1"/>
-    <row r="3" spans="2:2" s="55" customFormat="1" ht="60">
-      <c r="B3" s="54" t="s">
+    <row r="1" spans="2:2" s="51" customFormat="1"/>
+    <row r="2" spans="2:2" s="51" customFormat="1" ht="7.95" customHeight="1"/>
+    <row r="3" spans="2:2" s="53" customFormat="1" ht="60">
+      <c r="B3" s="52" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="2:2" s="53" customFormat="1" ht="10.050000000000001" customHeight="1"/>
-    <row r="5" spans="2:2" s="53" customFormat="1" ht="12" customHeight="1"/>
+    <row r="4" spans="2:2" s="51" customFormat="1" ht="10.050000000000001" customHeight="1"/>
+    <row r="5" spans="2:2" s="51" customFormat="1" ht="12" customHeight="1"/>
     <row r="8" spans="2:2" ht="18">
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="54" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="55" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="55" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="55" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="55" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="55" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="40" spans="2:31">
-      <c r="AE40" s="58"/>
+      <c r="AE40" s="56"/>
     </row>
     <row r="44" spans="2:31">
-      <c r="B44" s="59" t="s">
+      <c r="B44" s="57" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="45" spans="2:31">
-      <c r="B45" s="57" t="s">
+      <c r="B45" s="55" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="46" spans="2:31">
-      <c r="B46" s="57" t="s">
+      <c r="B46" s="55" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="47" spans="2:31">
-      <c r="B47" s="57" t="s">
+      <c r="B47" s="55" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="48" spans="2:31">
-      <c r="B48" s="57" t="s">
+      <c r="B48" s="55" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="62" spans="19:24">
-      <c r="S62" s="60" t="s">
+      <c r="S62" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="T62" s="61">
+      <c r="T62" s="59">
         <v>2023</v>
       </c>
-      <c r="U62" s="61">
+      <c r="U62" s="59">
         <v>2024</v>
       </c>
-      <c r="V62" s="61">
+      <c r="V62" s="59">
         <v>2025</v>
       </c>
-      <c r="W62" s="61">
+      <c r="W62" s="59">
         <v>2026</v>
       </c>
-      <c r="X62" s="61">
+      <c r="X62" s="59">
         <v>2027</v>
       </c>
     </row>
     <row r="63" spans="19:24">
-      <c r="S63" s="62" t="s">
+      <c r="S63" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="T63" s="63">
+      <c r="T63" s="61">
         <f>'Entrada de $'!N8</f>
         <v>321</v>
       </c>
-      <c r="U63" s="63">
+      <c r="U63" s="61">
         <f>T63*(1+InformacoesBasicas!D29+0.05)</f>
         <v>369.15000000000003</v>
       </c>
-      <c r="V63" s="63">
+      <c r="V63" s="61">
         <f>T63*(1+InformacoesBasicas!D30+0.1)</f>
         <v>417.3</v>
       </c>
-      <c r="W63" s="63">
+      <c r="W63" s="61">
         <f>T63*(1+InformacoesBasicas!D31+0.15)</f>
         <v>449.4</v>
       </c>
-      <c r="X63" s="63">
+      <c r="X63" s="61">
         <f>T63*(1+InformacoesBasicas!D32+0.2)</f>
         <v>481.5</v>
       </c>
     </row>
     <row r="97" spans="3:3">
-      <c r="C97" s="64"/>
+      <c r="C97" s="62"/>
     </row>
     <row r="99" spans="3:3">
-      <c r="C99" s="64"/>
+      <c r="C99" s="62"/>
     </row>
     <row r="100" spans="3:3">
-      <c r="C100" s="64"/>
+      <c r="C100" s="62"/>
     </row>
     <row r="101" spans="3:3">
-      <c r="C101" s="64"/>
+      <c r="C101" s="62"/>
     </row>
     <row r="102" spans="3:3">
-      <c r="C102" s="64"/>
+      <c r="C102" s="62"/>
     </row>
     <row r="103" spans="3:3">
-      <c r="C103" s="64"/>
+      <c r="C103" s="62"/>
     </row>
     <row r="105" spans="3:3">
-      <c r="C105" s="64"/>
+      <c r="C105" s="62"/>
     </row>
     <row r="106" spans="3:3">
-      <c r="C106" s="64"/>
+      <c r="C106" s="62"/>
     </row>
     <row r="107" spans="3:3">
-      <c r="C107" s="64"/>
+      <c r="C107" s="62"/>
     </row>
     <row r="108" spans="3:3">
-      <c r="C108" s="64"/>
+      <c r="C108" s="62"/>
     </row>
     <row r="110" spans="3:3">
-      <c r="C110" s="64"/>
+      <c r="C110" s="62"/>
     </row>
     <row r="111" spans="3:3">
-      <c r="C111" s="64"/>
+      <c r="C111" s="62"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
